--- a/DB_documentation.xlsx
+++ b/DB_documentation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -103,12 +100,6 @@
   </si>
   <si>
     <t>DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NOT NULL
-default CURRENT_TIMESTAMP on update
-CURRENT_TIMESTAMP,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -124,6 +115,28 @@
   </si>
   <si>
     <t>calendar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL
+default CURRENT_TIMESTAMP on update
+CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -546,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -561,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -572,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -597,54 +610,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1">
+    <row r="6" spans="1:3" ht="42" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="42" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="17" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="65" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="65" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/DB_documentation.xlsx
+++ b/DB_documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedules" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>schedules</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,10 +130,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NOT NULL
-default CURRENT_TIMESTAMP on update
-CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS `calendar`.`schedules` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `schedule_id` INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `start_date` TIMESTAMP NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `end_date` TIMESTAMP NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `schedule_title` VARCHAR(255) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `schedule_detail` TEXT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `update_at` TIMESTAMP NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `created_at` TIMESTAMP NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`schedule_id`))</t>
+  </si>
+  <si>
+    <t>ENGINE = InnoDB</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  `delete_at` TIMESTAMP NULL,</t>
   </si>
 </sst>
 </file>
@@ -187,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -205,6 +236,86 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -218,12 +329,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -559,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -574,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -585,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -612,19 +732,19 @@
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -646,15 +766,15 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="65" customHeight="1">
+    <row r="10" spans="1:3" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -673,9 +793,86 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/DB_documentation.xlsx
+++ b/DB_documentation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -134,41 +134,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">  `schedule_id` INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `start_date` TIMESTAMP NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `end_date` TIMESTAMP NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `schedule_title` VARCHAR(255) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `schedule_detail` TEXT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `update_at` TIMESTAMP NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `created_at` TIMESTAMP NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`schedule_id`))</t>
+  </si>
+  <si>
+    <t>ENGINE = InnoDB</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>CREATE TABLE IF NOT EXISTS `calendar`.`schedules` (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `schedule_id` INT NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `start_date` TIMESTAMP NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `end_date` TIMESTAMP NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `schedule_title` VARCHAR(255) NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `schedule_detail` TEXT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `update_at` TIMESTAMP NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `created_at` TIMESTAMP NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PRIMARY KEY (`schedule_id`))</t>
-  </si>
-  <si>
-    <t>ENGINE = InnoDB</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">  `delete_at` TIMESTAMP NULL,</t>
+  </si>
+  <si>
+    <t>create database calendar default character set utf8;</t>
   </si>
 </sst>
 </file>
@@ -679,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -793,86 +797,103 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/DB_documentation.xlsx
+++ b/DB_documentation.xlsx
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>schedule_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,7 +130,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  `schedule_id` INT NOT NULL,</t>
+    <t>CREATE TABLE IF NOT EXISTS `calendar`.`schedules` (</t>
   </si>
   <si>
     <t xml:space="preserve">  `start_date` TIMESTAMP NULL,</t>
@@ -165,14 +161,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CREATE TABLE IF NOT EXISTS `calendar`.`schedules` (</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">  `delete_at` TIMESTAMP NULL,</t>
   </si>
   <si>
     <t>create database calendar default character set utf8;</t>
+  </si>
+  <si>
+    <t>schedule_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  `schedule_id` INT NOT NULL AUTO_INCREMENT,</t>
   </si>
 </sst>
 </file>
@@ -326,8 +325,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -349,12 +350,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -685,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -698,10 +701,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -709,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -725,79 +728,79 @@
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -808,7 +811,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -820,77 +823,77 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>

--- a/DB_documentation.xlsx
+++ b/DB_documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedules" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>delete_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>schedules</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -161,9 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  `delete_at` TIMESTAMP NULL,</t>
-  </si>
-  <si>
     <t>create database calendar default character set utf8;</t>
   </si>
   <si>
@@ -172,6 +165,13 @@
   </si>
   <si>
     <t xml:space="preserve">  `schedule_id` INT NOT NULL AUTO_INCREMENT,</t>
+  </si>
+  <si>
+    <t>deleted_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  `deleted_at` TIMESTAMP NULL,</t>
   </si>
 </sst>
 </file>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -701,10 +701,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -728,7 +728,7 @@
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -739,19 +739,19 @@
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -778,10 +778,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -797,10 +797,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -811,7 +811,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -823,77 +823,77 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
